--- a/corre_ing_exp-censo_casen/P01_urbano.xlsx
+++ b/corre_ing_exp-censo_casen/P01_urbano.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L311"/>
+  <dimension ref="A1:O311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +415,21 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>comuna</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>promedio_i</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>año.y</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>ingresos_expandidos</t>
         </is>
       </c>
@@ -455,7 +470,20 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Iquique</t>
+        </is>
+      </c>
+      <c r="M2">
+        <v>375676.9095251475</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O2">
         <v>71930106512.96095</v>
       </c>
     </row>
@@ -492,7 +520,20 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Alto Hospicio</t>
+        </is>
+      </c>
+      <c r="M3">
+        <v>311571.7231430325</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O3">
         <v>33766585495.62615</v>
       </c>
     </row>
@@ -529,7 +570,20 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Pozo Almonte</t>
+        </is>
+      </c>
+      <c r="M4">
+        <v>316138.4942528736</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O4">
         <v>4966851883.206897</v>
       </c>
     </row>
@@ -563,7 +617,20 @@
       <c r="I5">
         <v>13</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Pica</t>
+        </is>
+      </c>
+      <c r="M5">
+        <v>330061.0606060606</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O5">
         <v>3068247619.39394</v>
       </c>
     </row>
@@ -603,7 +670,20 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Antofagasta</t>
+        </is>
+      </c>
+      <c r="M6">
+        <v>368221.3567717354</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O6">
         <v>133249367039.0582</v>
       </c>
     </row>
@@ -640,7 +720,20 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Mejillones</t>
+        </is>
+      </c>
+      <c r="M7">
+        <v>369770.7211538461</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O7">
         <v>4979702301.778846</v>
       </c>
     </row>
@@ -680,7 +773,20 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Taltal</t>
+        </is>
+      </c>
+      <c r="M8">
+        <v>383666.2117647059</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O8">
         <v>5109282942.070588</v>
       </c>
     </row>
@@ -720,7 +826,20 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Calama</t>
+        </is>
+      </c>
+      <c r="M9">
+        <v>434325.0643203884</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O9">
         <v>71981127234.88228</v>
       </c>
     </row>
@@ -757,7 +876,20 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>San Pedro de Atacama</t>
+        </is>
+      </c>
+      <c r="M10">
+        <v>442860.9915966386</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O10">
         <v>4869699463.596639</v>
       </c>
     </row>
@@ -794,7 +926,20 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Tocopilla</t>
+        </is>
+      </c>
+      <c r="M11">
+        <v>286187.2</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O11">
         <v>7207910819.200001</v>
       </c>
     </row>
@@ -828,7 +973,20 @@
       <c r="I12">
         <v>84</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>María Elena</t>
+        </is>
+      </c>
+      <c r="M12">
+        <v>477748.0202020202</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O12">
         <v>3084818966.444444</v>
       </c>
     </row>
@@ -865,7 +1023,20 @@
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Copiapó</t>
+        </is>
+      </c>
+      <c r="M13">
+        <v>343120.9912959381</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O13">
         <v>52819016037.12282</v>
       </c>
     </row>
@@ -899,7 +1070,20 @@
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Caldera</t>
+        </is>
+      </c>
+      <c r="M14">
+        <v>318653.1692913386</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O14">
         <v>5628052276.023623</v>
       </c>
     </row>
@@ -936,7 +1120,20 @@
       <c r="K15">
         <v>1</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Tierra Amarilla</t>
+        </is>
+      </c>
+      <c r="M15">
+        <v>333194.8582677165</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O15">
         <v>4671058718.055119</v>
       </c>
     </row>
@@ -967,7 +1164,20 @@
       <c r="I16">
         <v>28</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Chañaral</t>
+        </is>
+      </c>
+      <c r="M16">
+        <v>286389.3277310925</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O16">
         <v>3499391195.546219</v>
       </c>
     </row>
@@ -998,7 +1208,20 @@
       <c r="I17">
         <v>96</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Diego de Almagro</t>
+        </is>
+      </c>
+      <c r="M17">
+        <v>351583.8848167539</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O17">
         <v>4895805596.073299</v>
       </c>
     </row>
@@ -1038,7 +1261,20 @@
       <c r="K18">
         <v>1</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Vallenar</t>
+        </is>
+      </c>
+      <c r="M18">
+        <v>315981.4849921011</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O18">
         <v>16404810756.33491</v>
       </c>
     </row>
@@ -1060,7 +1296,20 @@
       <c r="I19">
         <v>8</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Freirina</t>
+        </is>
+      </c>
+      <c r="M19">
+        <v>289049.8585858586</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O19">
         <v>2035200054.303031</v>
       </c>
     </row>
@@ -1100,7 +1349,20 @@
       <c r="K20">
         <v>1</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Huasco</t>
+        </is>
+      </c>
+      <c r="M20">
+        <v>337414.794520548</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O20">
         <v>3424422749.589041</v>
       </c>
     </row>
@@ -1137,7 +1399,20 @@
       <c r="K21">
         <v>1</v>
       </c>
-      <c r="L21">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>La Serena</t>
+        </is>
+      </c>
+      <c r="M21">
+        <v>279340.1036941024</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O21">
         <v>61749247281.99611</v>
       </c>
     </row>
@@ -1177,7 +1452,20 @@
       <c r="K22">
         <v>1</v>
       </c>
-      <c r="L22">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="M22">
+        <v>269078.5978723404</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O22">
         <v>61277269093.46808</v>
       </c>
     </row>
@@ -1208,7 +1496,20 @@
       <c r="I23">
         <v>15</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Andacollo</t>
+        </is>
+      </c>
+      <c r="M23">
+        <v>258539.7428571429</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O23">
         <v>2855312920.114286</v>
       </c>
     </row>
@@ -1233,7 +1534,20 @@
       <c r="I24">
         <v>2</v>
       </c>
-      <c r="L24">
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>La Higuera</t>
+        </is>
+      </c>
+      <c r="M24">
+        <v>214257.0194174757</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O24">
         <v>908664019.3495146</v>
       </c>
     </row>
@@ -1267,7 +1581,20 @@
       <c r="I25">
         <v>23</v>
       </c>
-      <c r="L25">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Vicuña</t>
+        </is>
+      </c>
+      <c r="M25">
+        <v>254177.0326086957</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O25">
         <v>7058750372.576087</v>
       </c>
     </row>
@@ -1301,7 +1628,20 @@
       <c r="I26">
         <v>24</v>
       </c>
-      <c r="L26">
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Illapel</t>
+        </is>
+      </c>
+      <c r="M26">
+        <v>282139.311827957</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O26">
         <v>8703433491.268818</v>
       </c>
     </row>
@@ -1329,7 +1669,20 @@
       <c r="I27">
         <v>6</v>
       </c>
-      <c r="L27">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Canela</t>
+        </is>
+      </c>
+      <c r="M27">
+        <v>233397.3214285714</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O27">
         <v>2122281843.75</v>
       </c>
     </row>
@@ -1366,7 +1719,20 @@
       <c r="K28">
         <v>1</v>
       </c>
-      <c r="L28">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Los Vilos</t>
+        </is>
+      </c>
+      <c r="M28">
+        <v>285213.9615384616</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O28">
         <v>6098444925.615385</v>
       </c>
     </row>
@@ -1400,7 +1766,20 @@
       <c r="K29">
         <v>1</v>
       </c>
-      <c r="L29">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Salamanca</t>
+        </is>
+      </c>
+      <c r="M29">
+        <v>262056.9404761905</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O29">
         <v>7690585032.154762</v>
       </c>
     </row>
@@ -1440,7 +1819,20 @@
       <c r="K30">
         <v>1</v>
       </c>
-      <c r="L30">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Ovalle</t>
+        </is>
+      </c>
+      <c r="M30">
+        <v>280373.4909090909</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O30">
         <v>31197719080.43636</v>
       </c>
     </row>
@@ -1471,7 +1863,20 @@
       <c r="I31">
         <v>15</v>
       </c>
-      <c r="L31">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Combarbalá</t>
+        </is>
+      </c>
+      <c r="M31">
+        <v>234537.2661870504</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O31">
         <v>3124505460.143885</v>
       </c>
     </row>
@@ -1496,7 +1901,20 @@
       <c r="I32">
         <v>7</v>
       </c>
-      <c r="L32">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Monte Patria</t>
+        </is>
+      </c>
+      <c r="M32">
+        <v>225369.1484375</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O32">
         <v>6930326683.601563</v>
       </c>
     </row>
@@ -1530,7 +1948,20 @@
       <c r="K33">
         <v>1</v>
       </c>
-      <c r="L33">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Punitaqui</t>
+        </is>
+      </c>
+      <c r="M33">
+        <v>212496.1206896552</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O33">
         <v>2328107498.275862</v>
       </c>
     </row>
@@ -1570,7 +2001,20 @@
       <c r="K34">
         <v>1</v>
       </c>
-      <c r="L34">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Valparaíso</t>
+        </is>
+      </c>
+      <c r="M34">
+        <v>306572.4884233738</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O34">
         <v>90946261553.23595</v>
       </c>
     </row>
@@ -1604,7 +2048,20 @@
       <c r="K35">
         <v>1</v>
       </c>
-      <c r="L35">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Casablanca</t>
+        </is>
+      </c>
+      <c r="M35">
+        <v>348088.5754716981</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O35">
         <v>9352095757.198114</v>
       </c>
     </row>
@@ -1638,7 +2095,20 @@
       <c r="I36">
         <v>22</v>
       </c>
-      <c r="L36">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Concón</t>
+        </is>
+      </c>
+      <c r="M36">
+        <v>333932.435483871</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O36">
         <v>14075920020.51613</v>
       </c>
     </row>
@@ -1672,7 +2142,20 @@
       <c r="K37">
         <v>1</v>
       </c>
-      <c r="L37">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Puchuncaví</t>
+        </is>
+      </c>
+      <c r="M37">
+        <v>296035.5294117647</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O37">
         <v>5490274928.470588</v>
       </c>
     </row>
@@ -1712,7 +2195,20 @@
       <c r="K38">
         <v>1</v>
       </c>
-      <c r="L38">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Quintero</t>
+        </is>
+      </c>
+      <c r="M38">
+        <v>308224.693877551</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O38">
         <v>9839456902.653061</v>
       </c>
     </row>
@@ -1752,7 +2248,20 @@
       <c r="K39">
         <v>1</v>
       </c>
-      <c r="L39">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Viña del Mar</t>
+        </is>
+      </c>
+      <c r="M39">
+        <v>354715.8825883922</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O39">
         <v>118563074323.4049</v>
       </c>
     </row>
@@ -1792,7 +2301,20 @@
       <c r="K40">
         <v>1</v>
       </c>
-      <c r="L40">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Los Andes</t>
+        </is>
+      </c>
+      <c r="M40">
+        <v>355446.1949685534</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O40">
         <v>23711104773.96226</v>
       </c>
     </row>
@@ -1817,7 +2339,20 @@
       <c r="I41">
         <v>4</v>
       </c>
-      <c r="L41">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Calle Larga</t>
+        </is>
+      </c>
+      <c r="M41">
+        <v>246387.3211009174</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O41">
         <v>3654416746.568808</v>
       </c>
     </row>
@@ -1845,7 +2380,20 @@
       <c r="I42">
         <v>6</v>
       </c>
-      <c r="L42">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Rinconada</t>
+        </is>
+      </c>
+      <c r="M42">
+        <v>279807.8699186992</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O42">
         <v>2855998928.260163</v>
       </c>
     </row>
@@ -1873,7 +2421,20 @@
       <c r="I43">
         <v>3</v>
       </c>
-      <c r="L43">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>San Esteban</t>
+        </is>
+      </c>
+      <c r="M43">
+        <v>219571.5980392157</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O43">
         <v>4140022481.029412</v>
       </c>
     </row>
@@ -1910,7 +2471,20 @@
       <c r="K44">
         <v>1</v>
       </c>
-      <c r="L44">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>La Ligua</t>
+        </is>
+      </c>
+      <c r="M44">
+        <v>259482.3475609756</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O44">
         <v>9183080280.182926</v>
       </c>
     </row>
@@ -1938,7 +2512,20 @@
       <c r="I45">
         <v>10</v>
       </c>
-      <c r="L45">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Cabildo</t>
+        </is>
+      </c>
+      <c r="M45">
+        <v>262745.9130434783</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O45">
         <v>5094117762.086957</v>
       </c>
     </row>
@@ -1966,7 +2553,20 @@
       <c r="I46">
         <v>8</v>
       </c>
-      <c r="L46">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Papudo</t>
+        </is>
+      </c>
+      <c r="M46">
+        <v>302317.1340206186</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O46">
         <v>1921527703.835052</v>
       </c>
     </row>
@@ -1994,7 +2594,20 @@
       <c r="I47">
         <v>11</v>
       </c>
-      <c r="L47">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Petorca</t>
+        </is>
+      </c>
+      <c r="M47">
+        <v>237510.7884615385</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O47">
         <v>2333781007.423077</v>
       </c>
     </row>
@@ -2025,7 +2638,20 @@
       <c r="I48">
         <v>7</v>
       </c>
-      <c r="L48">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Zapallar</t>
+        </is>
+      </c>
+      <c r="M48">
+        <v>294389.1525423729</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O48">
         <v>2160521990.508474</v>
       </c>
     </row>
@@ -2062,7 +2688,20 @@
       <c r="K49">
         <v>1</v>
       </c>
-      <c r="L49">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Quillota</t>
+        </is>
+      </c>
+      <c r="M49">
+        <v>288694.2112932605</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O49">
         <v>26131733923.63206</v>
       </c>
     </row>
@@ -2099,7 +2738,20 @@
       <c r="K50">
         <v>1</v>
       </c>
-      <c r="L50">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Calera</t>
+        </is>
+      </c>
+      <c r="M50">
+        <v>282823.6498054475</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O50">
         <v>14297866792.26459</v>
       </c>
     </row>
@@ -2127,7 +2779,20 @@
       <c r="I51">
         <v>6</v>
       </c>
-      <c r="L51">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Hijuelas</t>
+        </is>
+      </c>
+      <c r="M51">
+        <v>268449.6666666667</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O51">
         <v>4828872604</v>
       </c>
     </row>
@@ -2158,7 +2823,20 @@
       <c r="I52">
         <v>3</v>
       </c>
-      <c r="L52">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>La Cruz</t>
+        </is>
+      </c>
+      <c r="M52">
+        <v>335544.2574257426</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O52">
         <v>7414857000.594059</v>
       </c>
     </row>
@@ -2195,7 +2873,20 @@
       <c r="K53">
         <v>1</v>
       </c>
-      <c r="L53">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Nogales</t>
+        </is>
+      </c>
+      <c r="M53">
+        <v>259917.7803030303</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O53">
         <v>5749381300.30303</v>
       </c>
     </row>
@@ -2232,7 +2923,20 @@
       <c r="K54">
         <v>1</v>
       </c>
-      <c r="L54">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="M54">
+        <v>246603.625</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O54">
         <v>22527241143.75</v>
       </c>
     </row>
@@ -2266,7 +2970,20 @@
       <c r="I55">
         <v>9</v>
       </c>
-      <c r="L55">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Algarrobo</t>
+        </is>
+      </c>
+      <c r="M55">
+        <v>390710.4487179487</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O55">
         <v>5398446269.935897</v>
       </c>
     </row>
@@ -2297,7 +3014,20 @@
       <c r="I56">
         <v>17</v>
       </c>
-      <c r="L56">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="M56">
+        <v>244949.3796296296</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O56">
         <v>5569658994.018518</v>
       </c>
     </row>
@@ -2334,7 +3064,20 @@
       <c r="K57">
         <v>1</v>
       </c>
-      <c r="L57">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>El Quisco</t>
+        </is>
+      </c>
+      <c r="M57">
+        <v>270498.2323232323</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O57">
         <v>4315799296.717172</v>
       </c>
     </row>
@@ -2371,7 +3114,20 @@
       <c r="K58">
         <v>1</v>
       </c>
-      <c r="L58">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>El Tabo</t>
+        </is>
+      </c>
+      <c r="M58">
+        <v>287270.9875</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O58">
         <v>3816682339.925</v>
       </c>
     </row>
@@ -2402,7 +3158,20 @@
       <c r="I59">
         <v>3</v>
       </c>
-      <c r="L59">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Santo Domingo</t>
+        </is>
+      </c>
+      <c r="M59">
+        <v>404470.8734177215</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O59">
         <v>4408732520.253164</v>
       </c>
     </row>
@@ -2439,7 +3208,20 @@
       <c r="K60">
         <v>1</v>
       </c>
-      <c r="L60">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>San Felipe</t>
+        </is>
+      </c>
+      <c r="M60">
+        <v>302021.4466019418</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O60">
         <v>23208536042.67962</v>
       </c>
     </row>
@@ -2473,7 +3255,20 @@
       <c r="I61">
         <v>6</v>
       </c>
-      <c r="L61">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Catemu</t>
+        </is>
+      </c>
+      <c r="M61">
+        <v>233238.3177570094</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O61">
         <v>3264869971.962617</v>
       </c>
     </row>
@@ -2507,7 +3302,20 @@
       <c r="K62">
         <v>1</v>
       </c>
-      <c r="L62">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Llaillay</t>
+        </is>
+      </c>
+      <c r="M62">
+        <v>295663.3737373737</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O62">
         <v>7275684300.929293</v>
       </c>
     </row>
@@ -2532,7 +3340,20 @@
       <c r="I63">
         <v>2</v>
       </c>
-      <c r="L63">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Panquehue</t>
+        </is>
+      </c>
+      <c r="M63">
+        <v>328043.3009708738</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O63">
         <v>2385858927.961165</v>
       </c>
     </row>
@@ -2560,7 +3381,20 @@
       <c r="I64">
         <v>15</v>
       </c>
-      <c r="L64">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Putaendo</t>
+        </is>
+      </c>
+      <c r="M64">
+        <v>309628.4408602151</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O64">
         <v>5187514898.172043</v>
       </c>
     </row>
@@ -2591,7 +3425,20 @@
       <c r="I65">
         <v>2</v>
       </c>
-      <c r="L65">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Santa María</t>
+        </is>
+      </c>
+      <c r="M65">
+        <v>256403.4298245614</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O65">
         <v>3907844673.956141</v>
       </c>
     </row>
@@ -2628,7 +3475,20 @@
       <c r="K66">
         <v>1</v>
       </c>
-      <c r="L66">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Quilpué</t>
+        </is>
+      </c>
+      <c r="M66">
+        <v>344393.1330326945</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O66">
         <v>52247193426.12401</v>
       </c>
     </row>
@@ -2659,7 +3519,20 @@
       <c r="I67">
         <v>24</v>
       </c>
-      <c r="L67">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="M67">
+        <v>307380.696969697</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O67">
         <v>14176705124.93939</v>
       </c>
     </row>
@@ -2693,7 +3566,20 @@
       <c r="I68">
         <v>5</v>
       </c>
-      <c r="L68">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Olmué</t>
+        </is>
+      </c>
+      <c r="M68">
+        <v>293997.6176470588</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O68">
         <v>5149662270.705882</v>
       </c>
     </row>
@@ -2730,7 +3616,20 @@
       <c r="K69">
         <v>1</v>
       </c>
-      <c r="L69">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Villa Alemana</t>
+        </is>
+      </c>
+      <c r="M69">
+        <v>361923.3089311859</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O69">
         <v>45800670898.62372</v>
       </c>
     </row>
@@ -2764,7 +3663,20 @@
       <c r="I70">
         <v>136</v>
       </c>
-      <c r="L70">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Rancagua</t>
+        </is>
+      </c>
+      <c r="M70">
+        <v>318384.5131578947</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O70">
         <v>76977097284.23683</v>
       </c>
     </row>
@@ -2789,7 +3701,20 @@
       <c r="I71">
         <v>4</v>
       </c>
-      <c r="L71">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Codegua</t>
+        </is>
+      </c>
+      <c r="M71">
+        <v>289405.7093023256</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O71">
         <v>3758801352.418604</v>
       </c>
     </row>
@@ -2817,7 +3742,20 @@
       <c r="I72">
         <v>3</v>
       </c>
-      <c r="L72">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Coinco</t>
+        </is>
+      </c>
+      <c r="M72">
+        <v>224485.0458715597</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O72">
         <v>1651985452.568807</v>
       </c>
     </row>
@@ -2845,7 +3783,20 @@
       <c r="I73">
         <v>3</v>
       </c>
-      <c r="L73">
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Coltauco</t>
+        </is>
+      </c>
+      <c r="M73">
+        <v>278925.8965517241</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O73">
         <v>5466110794.724137</v>
       </c>
     </row>
@@ -2876,7 +3827,20 @@
       <c r="I74">
         <v>5</v>
       </c>
-      <c r="L74">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Doñihue</t>
+        </is>
+      </c>
+      <c r="M74">
+        <v>306532</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O74">
         <v>6402533884</v>
       </c>
     </row>
@@ -2913,7 +3877,20 @@
       <c r="K75">
         <v>1</v>
       </c>
-      <c r="L75">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Graneros</t>
+        </is>
+      </c>
+      <c r="M75">
+        <v>311834.8062015504</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O75">
         <v>10426820414.96124</v>
       </c>
     </row>
@@ -2944,7 +3921,20 @@
       <c r="I76">
         <v>9</v>
       </c>
-      <c r="L76">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Las Cabras</t>
+        </is>
+      </c>
+      <c r="M76">
+        <v>279810.6052631579</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O76">
         <v>6894533313.684211</v>
       </c>
     </row>
@@ -2978,7 +3968,20 @@
       <c r="I77">
         <v>19</v>
       </c>
-      <c r="L77">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Machalí</t>
+        </is>
+      </c>
+      <c r="M77">
+        <v>316199.1637630662</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O77">
         <v>16602037093.37979</v>
       </c>
     </row>
@@ -3009,7 +4012,20 @@
       <c r="K78">
         <v>1</v>
       </c>
-      <c r="L78">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Malloa</t>
+        </is>
+      </c>
+      <c r="M78">
+        <v>213596.5565217391</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O78">
         <v>2863689033.286957</v>
       </c>
     </row>
@@ -3043,7 +4059,20 @@
       <c r="K79">
         <v>1</v>
       </c>
-      <c r="L79">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Mostazal</t>
+        </is>
+      </c>
+      <c r="M79">
+        <v>291701.7557603687</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O79">
         <v>7392597596.235023</v>
       </c>
     </row>
@@ -3077,7 +4106,20 @@
       <c r="I80">
         <v>4</v>
       </c>
-      <c r="L80">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Olivar</t>
+        </is>
+      </c>
+      <c r="M80">
+        <v>297914.8793103448</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O80">
         <v>4054025677.655172</v>
       </c>
     </row>
@@ -3108,7 +4150,20 @@
       <c r="I81">
         <v>5</v>
       </c>
-      <c r="L81">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Peumo</t>
+        </is>
+      </c>
+      <c r="M81">
+        <v>248687.4146341464</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O81">
         <v>3559462965.658537</v>
       </c>
     </row>
@@ -3136,7 +4191,20 @@
       <c r="I82">
         <v>8</v>
       </c>
-      <c r="L82">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Pichidegua</t>
+        </is>
+      </c>
+      <c r="M82">
+        <v>234187</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O82">
         <v>4616762518</v>
       </c>
     </row>
@@ -3161,7 +4229,20 @@
       <c r="I83">
         <v>7</v>
       </c>
-      <c r="L83">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Quinta de Tilcoco</t>
+        </is>
+      </c>
+      <c r="M83">
+        <v>210835.7247706422</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O83">
         <v>2741286093.46789</v>
       </c>
     </row>
@@ -3198,7 +4279,20 @@
       <c r="K84">
         <v>1</v>
       </c>
-      <c r="L84">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Rengo</t>
+        </is>
+      </c>
+      <c r="M84">
+        <v>293650.2296983759</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O84">
         <v>17273974762.00696</v>
       </c>
     </row>
@@ -3232,7 +4326,20 @@
       <c r="K85">
         <v>1</v>
       </c>
-      <c r="L85">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Requínoa</t>
+        </is>
+      </c>
+      <c r="M85">
+        <v>288865.2678571428</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O85">
         <v>8078983811.428571</v>
       </c>
     </row>
@@ -3272,7 +4379,20 @@
       <c r="K86">
         <v>1</v>
       </c>
-      <c r="L86">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>San Vicente</t>
+        </is>
+      </c>
+      <c r="M86">
+        <v>285655.7121212121</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O86">
         <v>13358975033.0606</v>
       </c>
     </row>
@@ -3306,7 +4426,20 @@
       <c r="I87">
         <v>21</v>
       </c>
-      <c r="L87">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Pichilemu</t>
+        </is>
+      </c>
+      <c r="M87">
+        <v>344227.0547945206</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O87">
         <v>5643258336.30137</v>
       </c>
     </row>
@@ -3334,7 +4467,20 @@
       <c r="I88">
         <v>2</v>
       </c>
-      <c r="L88">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>La Estrella</t>
+        </is>
+      </c>
+      <c r="M88">
+        <v>293280.7252747253</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O88">
         <v>891866685.5604396</v>
       </c>
     </row>
@@ -3362,7 +4508,20 @@
       <c r="I89">
         <v>9</v>
       </c>
-      <c r="L89">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Litueche</t>
+        </is>
+      </c>
+      <c r="M89">
+        <v>298955.6907216495</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O89">
         <v>1881627117.402062</v>
       </c>
     </row>
@@ -3393,7 +4552,20 @@
       <c r="I90">
         <v>6</v>
       </c>
-      <c r="L90">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Marchihue</t>
+        </is>
+      </c>
+      <c r="M90">
+        <v>336379.3148148148</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O90">
         <v>2458260032.666667</v>
       </c>
     </row>
@@ -3415,7 +4587,20 @@
       <c r="I91">
         <v>6</v>
       </c>
-      <c r="L91">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Paredones</t>
+        </is>
+      </c>
+      <c r="M91">
+        <v>238518.3181818182</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O91">
         <v>1475951352.909091</v>
       </c>
     </row>
@@ -3452,7 +4637,20 @@
       <c r="K92">
         <v>1</v>
       </c>
-      <c r="L92">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="M92">
+        <v>324998.7359550562</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O92">
         <v>24041131494.80337</v>
       </c>
     </row>
@@ -3477,7 +4675,20 @@
       <c r="I93">
         <v>3</v>
       </c>
-      <c r="L93">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Chépica</t>
+        </is>
+      </c>
+      <c r="M93">
+        <v>245508.7142857143</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O93">
         <v>3691714536.714286</v>
       </c>
     </row>
@@ -3514,7 +4725,20 @@
       <c r="K94">
         <v>1</v>
       </c>
-      <c r="L94">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Chimbarongo</t>
+        </is>
+      </c>
+      <c r="M94">
+        <v>260706.6556291391</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O94">
         <v>9228754902.615894</v>
       </c>
     </row>
@@ -3539,7 +4763,20 @@
       <c r="I95">
         <v>5</v>
       </c>
-      <c r="L95">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Lolol</t>
+        </is>
+      </c>
+      <c r="M95">
+        <v>236668.2127659574</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O95">
         <v>1611947197.148936</v>
       </c>
     </row>
@@ -3573,7 +4810,20 @@
       <c r="K96">
         <v>1</v>
       </c>
-      <c r="L96">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Nancagua</t>
+        </is>
+      </c>
+      <c r="M96">
+        <v>245992.6165413534</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O96">
         <v>4386786330.781955</v>
       </c>
     </row>
@@ -3598,7 +4848,20 @@
       <c r="I97">
         <v>1</v>
       </c>
-      <c r="L97">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Palmilla</t>
+        </is>
+      </c>
+      <c r="M97">
+        <v>246744.9801980198</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O97">
         <v>3079870842.831683</v>
       </c>
     </row>
@@ -3626,7 +4889,20 @@
       <c r="I98">
         <v>4</v>
       </c>
-      <c r="L98">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Peralillo</t>
+        </is>
+      </c>
+      <c r="M98">
+        <v>265630.6759259259</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O98">
         <v>2923796849.916667</v>
       </c>
     </row>
@@ -3651,7 +4927,20 @@
       <c r="I99">
         <v>3</v>
       </c>
-      <c r="L99">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Placilla</t>
+        </is>
+      </c>
+      <c r="M99">
+        <v>240573.8407079646</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O99">
         <v>2102134220.106195</v>
       </c>
     </row>
@@ -3682,7 +4971,20 @@
       <c r="K100">
         <v>1</v>
       </c>
-      <c r="L100">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="M100">
+        <v>300976.4455445544</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O100">
         <v>11393463346.08911</v>
       </c>
     </row>
@@ -3716,7 +5018,20 @@
       <c r="I101">
         <v>224</v>
       </c>
-      <c r="L101">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Talca</t>
+        </is>
+      </c>
+      <c r="M101">
+        <v>307377.3640699523</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O101">
         <v>67732753814.36247</v>
       </c>
     </row>
@@ -3753,7 +5068,20 @@
       <c r="K102">
         <v>1</v>
       </c>
-      <c r="L102">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Constitución</t>
+        </is>
+      </c>
+      <c r="M102">
+        <v>280736.8846153846</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O102">
         <v>12932986800.46154</v>
       </c>
     </row>
@@ -3781,7 +5109,20 @@
       <c r="I103">
         <v>4</v>
       </c>
-      <c r="L103">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Curepto</t>
+        </is>
+      </c>
+      <c r="M103">
+        <v>281855.5376344086</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O103">
         <v>2662971119.569893</v>
       </c>
     </row>
@@ -3809,7 +5150,20 @@
       <c r="I104">
         <v>6</v>
       </c>
-      <c r="L104">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Empedrado</t>
+        </is>
+      </c>
+      <c r="M104">
+        <v>209235.1785714286</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O104">
         <v>866652109.6428572</v>
       </c>
     </row>
@@ -3843,7 +5197,20 @@
       <c r="I105">
         <v>6</v>
       </c>
-      <c r="L105">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="M105">
+        <v>245019.6936936937</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O105">
         <v>12182624190.14414</v>
       </c>
     </row>
@@ -3871,7 +5238,20 @@
       <c r="I106">
         <v>1</v>
       </c>
-      <c r="L106">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Pelarco</t>
+        </is>
+      </c>
+      <c r="M106">
+        <v>216777.5</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O106">
         <v>1825700105</v>
       </c>
     </row>
@@ -3896,7 +5276,20 @@
       <c r="I107">
         <v>3</v>
       </c>
-      <c r="L107">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Pencahue</t>
+        </is>
+      </c>
+      <c r="M107">
+        <v>233692.6111111111</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O107">
         <v>1926795578.611111</v>
       </c>
     </row>
@@ -3915,7 +5308,20 @@
       <c r="F108">
         <v>25</v>
       </c>
-      <c r="L108">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Río Claro</t>
+        </is>
+      </c>
+      <c r="M108">
+        <v>224864.201754386</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O108">
         <v>3126961589.596491</v>
       </c>
     </row>
@@ -3943,7 +5349,20 @@
       <c r="I109">
         <v>10</v>
       </c>
-      <c r="L109">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>San Clemente</t>
+        </is>
+      </c>
+      <c r="M109">
+        <v>247003.523364486</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O109">
         <v>10687595452.45794</v>
       </c>
     </row>
@@ -3974,7 +5393,20 @@
       <c r="I110">
         <v>1</v>
       </c>
-      <c r="L110">
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>San Rafael</t>
+        </is>
+      </c>
+      <c r="M110">
+        <v>249688.462184874</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O110">
         <v>2294886655.941176</v>
       </c>
     </row>
@@ -4008,7 +5440,20 @@
       <c r="I111">
         <v>13</v>
       </c>
-      <c r="L111">
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Cauquenes</t>
+        </is>
+      </c>
+      <c r="M111">
+        <v>235303.7484662577</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O111">
         <v>9515918891.723927</v>
       </c>
     </row>
@@ -4033,7 +5478,20 @@
       <c r="I112">
         <v>6</v>
       </c>
-      <c r="L112">
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Chanco</t>
+        </is>
+      </c>
+      <c r="M112">
+        <v>250327.3131868132</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O112">
         <v>2234922252.131868</v>
       </c>
     </row>
@@ -4064,7 +5522,20 @@
       <c r="I113">
         <v>24</v>
       </c>
-      <c r="L113">
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Pelluhue</t>
+        </is>
+      </c>
+      <c r="M113">
+        <v>202735.2328767123</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O113">
         <v>1534908448.109589</v>
       </c>
     </row>
@@ -4098,7 +5569,20 @@
       <c r="I114">
         <v>42</v>
       </c>
-      <c r="L114">
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Curicó</t>
+        </is>
+      </c>
+      <c r="M114">
+        <v>282406.8523560209</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O114">
         <v>42117028332.96754</v>
       </c>
     </row>
@@ -4132,7 +5616,20 @@
       <c r="K115">
         <v>1</v>
       </c>
-      <c r="L115">
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Hualañé</t>
+        </is>
+      </c>
+      <c r="M115">
+        <v>303280.6299212598</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O115">
         <v>2928781043.149606</v>
       </c>
     </row>
@@ -4166,7 +5663,20 @@
       <c r="I116">
         <v>26</v>
       </c>
-      <c r="L116">
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Licantén</t>
+        </is>
+      </c>
+      <c r="M116">
+        <v>261799.2105263158</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O116">
         <v>1741750147.631579</v>
       </c>
     </row>
@@ -4203,7 +5713,20 @@
       <c r="K117">
         <v>1</v>
       </c>
-      <c r="L117">
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Molina</t>
+        </is>
+      </c>
+      <c r="M117">
+        <v>261223.2076502732</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O117">
         <v>12009998194.92896</v>
       </c>
     </row>
@@ -4234,7 +5757,20 @@
       <c r="K118">
         <v>1</v>
       </c>
-      <c r="L118">
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Rauco</t>
+        </is>
+      </c>
+      <c r="M118">
+        <v>271406.7857142857</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O118">
         <v>2845428741.428572</v>
       </c>
     </row>
@@ -4262,7 +5798,20 @@
       <c r="K119">
         <v>1</v>
       </c>
-      <c r="L119">
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Romeral</t>
+        </is>
+      </c>
+      <c r="M119">
+        <v>269016.9649122807</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O119">
         <v>4085560646.122807</v>
       </c>
     </row>
@@ -4287,7 +5836,20 @@
       <c r="I120">
         <v>3</v>
       </c>
-      <c r="L120">
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Sagrada Familia</t>
+        </is>
+      </c>
+      <c r="M120">
+        <v>248654.3</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O120">
         <v>4611045339.2</v>
       </c>
     </row>
@@ -4318,7 +5880,20 @@
       <c r="I121">
         <v>11</v>
       </c>
-      <c r="L121">
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Teno</t>
+        </is>
+      </c>
+      <c r="M121">
+        <v>262087.0737704918</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O121">
         <v>7579820260.516394</v>
       </c>
     </row>
@@ -4343,7 +5918,20 @@
       <c r="I122">
         <v>7</v>
       </c>
-      <c r="L122">
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Vichuquén</t>
+        </is>
+      </c>
+      <c r="M122">
+        <v>218281.8292682927</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O122">
         <v>943414066.0975609</v>
       </c>
     </row>
@@ -4383,7 +5971,20 @@
       <c r="K123">
         <v>1</v>
       </c>
-      <c r="L123">
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Linares</t>
+        </is>
+      </c>
+      <c r="M123">
+        <v>270205.2465483235</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O123">
         <v>25291751487.41618</v>
       </c>
     </row>
@@ -4411,7 +6012,20 @@
       <c r="I124">
         <v>12</v>
       </c>
-      <c r="L124">
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Colbún</t>
+        </is>
+      </c>
+      <c r="M124">
+        <v>200982.9504950495</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O124">
         <v>4173410967.029703</v>
       </c>
     </row>
@@ -4439,7 +6053,20 @@
       <c r="I125">
         <v>6</v>
       </c>
-      <c r="L125">
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Longaví</t>
+        </is>
+      </c>
+      <c r="M125">
+        <v>216067.1652892562</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O125">
         <v>6597394824.942149</v>
       </c>
     </row>
@@ -4470,7 +6097,20 @@
       <c r="K126">
         <v>1</v>
       </c>
-      <c r="L126">
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Parral</t>
+        </is>
+      </c>
+      <c r="M126">
+        <v>266374.6265060241</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O126">
         <v>11091040323.83133</v>
       </c>
     </row>
@@ -4498,7 +6138,20 @@
       <c r="I127">
         <v>6</v>
       </c>
-      <c r="L127">
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Retiro</t>
+        </is>
+      </c>
+      <c r="M127">
+        <v>225714.981981982</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O127">
         <v>4508431050.108109</v>
       </c>
     </row>
@@ -4535,7 +6188,20 @@
       <c r="K128">
         <v>1</v>
       </c>
-      <c r="L128">
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>San Javier</t>
+        </is>
+      </c>
+      <c r="M128">
+        <v>278559.0779220779</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O128">
         <v>12687530322.11688</v>
       </c>
     </row>
@@ -4563,7 +6229,20 @@
       <c r="I129">
         <v>3</v>
       </c>
-      <c r="L129">
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Villa Alegre</t>
+        </is>
+      </c>
+      <c r="M129">
+        <v>262111.012345679</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O129">
         <v>4251702731.259259</v>
       </c>
     </row>
@@ -4591,7 +6270,20 @@
       <c r="I130">
         <v>2</v>
       </c>
-      <c r="L130">
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Yerbas Buenas</t>
+        </is>
+      </c>
+      <c r="M130">
+        <v>244050.6696428571</v>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O130">
         <v>4412680157.8125</v>
       </c>
     </row>
@@ -4631,7 +6323,20 @@
       <c r="K131">
         <v>1</v>
       </c>
-      <c r="L131">
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Concepción</t>
+        </is>
+      </c>
+      <c r="M131">
+        <v>323059.6085568327</v>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O131">
         <v>72227728923.48532</v>
       </c>
     </row>
@@ -4671,7 +6376,20 @@
       <c r="K132">
         <v>1</v>
       </c>
-      <c r="L132">
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Coronel</t>
+        </is>
+      </c>
+      <c r="M132">
+        <v>277633.3549883991</v>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O132">
         <v>32278209117.66126</v>
       </c>
     </row>
@@ -4708,7 +6426,20 @@
       <c r="K133">
         <v>1</v>
       </c>
-      <c r="L133">
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Chiguayante</t>
+        </is>
+      </c>
+      <c r="M133">
+        <v>298370.0260145682</v>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O133">
         <v>25641323295.63996</v>
       </c>
     </row>
@@ -4730,7 +6461,20 @@
       <c r="I134">
         <v>4</v>
       </c>
-      <c r="L134">
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="M134">
+        <v>232450.2809917356</v>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O134">
         <v>2469551785.256198</v>
       </c>
     </row>
@@ -4758,7 +6502,20 @@
       <c r="K135">
         <v>1</v>
       </c>
-      <c r="L135">
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Hualqui</t>
+        </is>
+      </c>
+      <c r="M135">
+        <v>232273.2833333333</v>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O135">
         <v>5651905803.349999</v>
       </c>
     </row>
@@ -4795,7 +6552,20 @@
       <c r="J136">
         <v>1</v>
       </c>
-      <c r="L136">
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Lota</t>
+        </is>
+      </c>
+      <c r="M136">
+        <v>283449.0407725322</v>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O136">
         <v>12339953990.03219</v>
       </c>
     </row>
@@ -4832,7 +6602,20 @@
       <c r="K137">
         <v>1</v>
       </c>
-      <c r="L137">
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Penco</t>
+        </is>
+      </c>
+      <c r="M137">
+        <v>265193.8195488722</v>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O137">
         <v>12561435650.57143</v>
       </c>
     </row>
@@ -4863,7 +6646,20 @@
       <c r="I138">
         <v>21</v>
       </c>
-      <c r="L138">
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>San Pedro de la Paz</t>
+        </is>
+      </c>
+      <c r="M138">
+        <v>274393.9795918368</v>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O138">
         <v>36167321662.04082</v>
       </c>
     </row>
@@ -4897,7 +6693,20 @@
       <c r="I139">
         <v>4</v>
       </c>
-      <c r="L139">
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Santa Juana</t>
+        </is>
+      </c>
+      <c r="M139">
+        <v>260550.2016806723</v>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O139">
         <v>3582304722.907563</v>
       </c>
     </row>
@@ -4937,7 +6746,20 @@
       <c r="K140">
         <v>1</v>
       </c>
-      <c r="L140">
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Talcahuano</t>
+        </is>
+      </c>
+      <c r="M140">
+        <v>320279.5673374613</v>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O140">
         <v>48602104063.89241</v>
       </c>
     </row>
@@ -4977,7 +6799,20 @@
       <c r="K141">
         <v>1</v>
       </c>
-      <c r="L141">
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Tomé</t>
+        </is>
+      </c>
+      <c r="M141">
+        <v>275421.3214285714</v>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O141">
         <v>15133299927.21429</v>
       </c>
     </row>
@@ -5014,7 +6849,20 @@
       <c r="K142">
         <v>1</v>
       </c>
-      <c r="L142">
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Hualpén</t>
+        </is>
+      </c>
+      <c r="M142">
+        <v>287452.1336633663</v>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O142">
         <v>26380344662.68812</v>
       </c>
     </row>
@@ -5048,7 +6896,20 @@
       <c r="K143">
         <v>1</v>
       </c>
-      <c r="L143">
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Lebu</t>
+        </is>
+      </c>
+      <c r="M143">
+        <v>256023.4731707317</v>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O143">
         <v>6534231082.263414</v>
       </c>
     </row>
@@ -5076,7 +6937,20 @@
       <c r="I144">
         <v>37</v>
       </c>
-      <c r="L144">
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Arauco</t>
+        </is>
+      </c>
+      <c r="M144">
+        <v>316263.6035242291</v>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O144">
         <v>11466769472.97797</v>
       </c>
     </row>
@@ -5110,7 +6984,20 @@
       <c r="K145">
         <v>1</v>
       </c>
-      <c r="L145">
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Cañete</t>
+        </is>
+      </c>
+      <c r="M145">
+        <v>241126.1355140187</v>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O145">
         <v>8327773342.247664</v>
       </c>
     </row>
@@ -5138,7 +7025,20 @@
       <c r="I146">
         <v>6</v>
       </c>
-      <c r="L146">
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Contulmo</t>
+        </is>
+      </c>
+      <c r="M146">
+        <v>213011.2427184466</v>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O146">
         <v>1284670804.834951</v>
       </c>
     </row>
@@ -5172,7 +7072,20 @@
       <c r="I147">
         <v>9</v>
       </c>
-      <c r="L147">
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Curanilahue</t>
+        </is>
+      </c>
+      <c r="M147">
+        <v>262911.9194805195</v>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O147">
         <v>8488900056.187014</v>
       </c>
     </row>
@@ -5203,7 +7116,20 @@
       <c r="K148">
         <v>1</v>
       </c>
-      <c r="L148">
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>Los Álamos</t>
+        </is>
+      </c>
+      <c r="M148">
+        <v>230097.790960452</v>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O148">
         <v>4840107032.853108</v>
       </c>
     </row>
@@ -5234,7 +7160,20 @@
       <c r="J149">
         <v>1</v>
       </c>
-      <c r="L149">
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>Tirúa</t>
+        </is>
+      </c>
+      <c r="M149">
+        <v>221347.3366336634</v>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O149">
         <v>2305775205.712871</v>
       </c>
     </row>
@@ -5274,7 +7213,20 @@
       <c r="K150">
         <v>1</v>
       </c>
-      <c r="L150">
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>Los Ángeles</t>
+        </is>
+      </c>
+      <c r="M150">
+        <v>298724.4115755627</v>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O150">
         <v>60441208918.49519</v>
       </c>
     </row>
@@ -5305,7 +7257,20 @@
       <c r="J151">
         <v>1</v>
       </c>
-      <c r="L151">
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>Antuco</t>
+        </is>
+      </c>
+      <c r="M151">
+        <v>191980.170212766</v>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O151">
         <v>781935233.2765957</v>
       </c>
     </row>
@@ -5339,7 +7304,20 @@
       <c r="K152">
         <v>1</v>
       </c>
-      <c r="L152">
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>Cabrero</t>
+        </is>
+      </c>
+      <c r="M152">
+        <v>225166.5075376885</v>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O152">
         <v>6433682619.874373</v>
       </c>
     </row>
@@ -5370,7 +7348,20 @@
       <c r="I153">
         <v>11</v>
       </c>
-      <c r="L153">
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>Laja</t>
+        </is>
+      </c>
+      <c r="M153">
+        <v>224427.9504132232</v>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O153">
         <v>5024717381.801653</v>
       </c>
     </row>
@@ -5398,7 +7389,20 @@
       <c r="I154">
         <v>20</v>
       </c>
-      <c r="L154">
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>Mulchén</t>
+        </is>
+      </c>
+      <c r="M154">
+        <v>246376.8728323699</v>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O154">
         <v>7299407611.404624</v>
       </c>
     </row>
@@ -5432,7 +7436,20 @@
       <c r="K155">
         <v>1</v>
       </c>
-      <c r="L155">
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>Nacimiento</t>
+        </is>
+      </c>
+      <c r="M155">
+        <v>292528.954248366</v>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O155">
         <v>7697899431.045752</v>
       </c>
     </row>
@@ -5457,7 +7474,20 @@
       <c r="I156">
         <v>2</v>
       </c>
-      <c r="L156">
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>Negrete</t>
+        </is>
+      </c>
+      <c r="M156">
+        <v>196781.4086021505</v>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O156">
         <v>1916060575.55914</v>
       </c>
     </row>
@@ -5482,7 +7512,20 @@
       <c r="I157">
         <v>2</v>
       </c>
-      <c r="L157">
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>Quilaco</t>
+        </is>
+      </c>
+      <c r="M157">
+        <v>196761</v>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O157">
         <v>784682868</v>
       </c>
     </row>
@@ -5513,7 +7556,20 @@
       <c r="I158">
         <v>3</v>
       </c>
-      <c r="L158">
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>Quilleco</t>
+        </is>
+      </c>
+      <c r="M158">
+        <v>201931.5537190083</v>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O158">
         <v>1935917805.504132</v>
       </c>
     </row>
@@ -5538,7 +7594,20 @@
       <c r="I159">
         <v>3</v>
       </c>
-      <c r="L159">
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>San Rosendo</t>
+        </is>
+      </c>
+      <c r="M159">
+        <v>206738</v>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O159">
         <v>705390056</v>
       </c>
     </row>
@@ -5563,7 +7632,20 @@
       <c r="I160">
         <v>12</v>
       </c>
-      <c r="L160">
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>Santa Bárbara</t>
+        </is>
+      </c>
+      <c r="M160">
+        <v>250849.4579439252</v>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O160">
         <v>3454949584.261682</v>
       </c>
     </row>
@@ -5588,7 +7670,20 @@
       <c r="I161">
         <v>6</v>
       </c>
-      <c r="L161">
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>Tucapel</t>
+        </is>
+      </c>
+      <c r="M161">
+        <v>214733.8613861386</v>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O161">
         <v>3035048396.831683</v>
       </c>
     </row>
@@ -5625,7 +7720,20 @@
       <c r="J162">
         <v>1</v>
       </c>
-      <c r="L162">
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>Yumbel</t>
+        </is>
+      </c>
+      <c r="M162">
+        <v>221417.7723577236</v>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O162">
         <v>4693613938.439025</v>
       </c>
     </row>
@@ -5665,7 +7773,20 @@
       <c r="K163">
         <v>1</v>
       </c>
-      <c r="L163">
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>Temuco</t>
+        </is>
+      </c>
+      <c r="M163">
+        <v>294512.6668167492</v>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O163">
         <v>83174794799.05223</v>
       </c>
     </row>
@@ -5699,7 +7820,20 @@
       <c r="J164">
         <v>1</v>
       </c>
-      <c r="L164">
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>Carahue</t>
+        </is>
+      </c>
+      <c r="M164">
+        <v>237416.6770833333</v>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O164">
         <v>5824543338.885417</v>
       </c>
     </row>
@@ -5739,7 +7873,20 @@
       <c r="K165">
         <v>1</v>
       </c>
-      <c r="L165">
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>Cunco</t>
+        </is>
+      </c>
+      <c r="M165">
+        <v>247099.1346153846</v>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O165">
         <v>4330659433.269231</v>
       </c>
     </row>
@@ -5770,7 +7917,20 @@
       <c r="J166">
         <v>1</v>
       </c>
-      <c r="L166">
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>Curarrehue</t>
+        </is>
+      </c>
+      <c r="M166">
+        <v>204180.6936936937</v>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O166">
         <v>1529109215.072072</v>
       </c>
     </row>
@@ -5801,7 +7961,20 @@
       <c r="I167">
         <v>7</v>
       </c>
-      <c r="L167">
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>Freire</t>
+        </is>
+      </c>
+      <c r="M167">
+        <v>305541.6703296703</v>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O167">
         <v>7518158340.131867</v>
       </c>
     </row>
@@ -5829,7 +8002,20 @@
       <c r="J168">
         <v>1</v>
       </c>
-      <c r="L168">
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>Galvarino</t>
+        </is>
+      </c>
+      <c r="M168">
+        <v>244269.5983606557</v>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O168">
         <v>2930258101.934426</v>
       </c>
     </row>
@@ -5863,7 +8049,20 @@
       <c r="I169">
         <v>7</v>
       </c>
-      <c r="L169">
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>Gorbea</t>
+        </is>
+      </c>
+      <c r="M169">
+        <v>254627.8787878788</v>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O169">
         <v>3670206244.848485</v>
       </c>
     </row>
@@ -5894,7 +8093,20 @@
       <c r="I170">
         <v>14</v>
       </c>
-      <c r="L170">
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>Lautaro</t>
+        </is>
+      </c>
+      <c r="M170">
+        <v>296417.6887417219</v>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O170">
         <v>11267725602.13907</v>
       </c>
     </row>
@@ -5925,7 +8137,20 @@
       <c r="I171">
         <v>7</v>
       </c>
-      <c r="L171">
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>Loncoche</t>
+        </is>
+      </c>
+      <c r="M171">
+        <v>213841.9212598425</v>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O171">
         <v>5049235444.787401</v>
       </c>
     </row>
@@ -5953,7 +8178,20 @@
       <c r="J172">
         <v>1</v>
       </c>
-      <c r="L172">
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>Melipeuco</t>
+        </is>
+      </c>
+      <c r="M172">
+        <v>211980.7659574468</v>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O172">
         <v>1301137941.446808</v>
       </c>
     </row>
@@ -5984,7 +8222,20 @@
       <c r="I173">
         <v>11</v>
       </c>
-      <c r="L173">
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>Nueva Imperial</t>
+        </is>
+      </c>
+      <c r="M173">
+        <v>242015.8620689655</v>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O173">
         <v>7867935675.862068</v>
       </c>
     </row>
@@ -6018,7 +8269,20 @@
       <c r="I174">
         <v>8</v>
       </c>
-      <c r="L174">
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>Padre Las Casas</t>
+        </is>
+      </c>
+      <c r="M174">
+        <v>278372.6861826698</v>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O174">
         <v>21191399108.34192</v>
       </c>
     </row>
@@ -6049,7 +8313,20 @@
       <c r="I175">
         <v>1</v>
       </c>
-      <c r="L175">
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>Perquenco</t>
+        </is>
+      </c>
+      <c r="M175">
+        <v>260596.6145833333</v>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O175">
         <v>1799419623.697917</v>
       </c>
     </row>
@@ -6083,7 +8360,20 @@
       <c r="J176">
         <v>1</v>
       </c>
-      <c r="L176">
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>Pitrufquén</t>
+        </is>
+      </c>
+      <c r="M176">
+        <v>249811.8163265306</v>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O176">
         <v>6204576082.102041</v>
       </c>
     </row>
@@ -6120,7 +8410,20 @@
       <c r="J177">
         <v>1</v>
       </c>
-      <c r="L177">
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>Pucón</t>
+        </is>
+      </c>
+      <c r="M177">
+        <v>260967.9186046512</v>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O177">
         <v>7443587942.360465</v>
       </c>
     </row>
@@ -6154,7 +8457,20 @@
       <c r="J178">
         <v>1</v>
       </c>
-      <c r="L178">
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="M178">
+        <v>229431.3647058824</v>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O178">
         <v>2856420490.588235</v>
       </c>
     </row>
@@ -6185,7 +8501,20 @@
       <c r="I179">
         <v>3</v>
       </c>
-      <c r="L179">
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>Teodoro Schmidt</t>
+        </is>
+      </c>
+      <c r="M179">
+        <v>224680.0909090909</v>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O179">
         <v>3380311967.727273</v>
       </c>
     </row>
@@ -6210,7 +8539,20 @@
       <c r="I180">
         <v>7</v>
       </c>
-      <c r="L180">
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>Toltén</t>
+        </is>
+      </c>
+      <c r="M180">
+        <v>219705.4159292035</v>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O180">
         <v>2135976053.663717</v>
       </c>
     </row>
@@ -6244,7 +8586,20 @@
       <c r="I181">
         <v>7</v>
       </c>
-      <c r="L181">
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Vilcún</t>
+        </is>
+      </c>
+      <c r="M181">
+        <v>172649.040201005</v>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O181">
         <v>4860243130.698493</v>
       </c>
     </row>
@@ -6281,7 +8636,20 @@
       <c r="K182">
         <v>1</v>
       </c>
-      <c r="L182">
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>Villarrica</t>
+        </is>
+      </c>
+      <c r="M182">
+        <v>246047.7272727273</v>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O182">
         <v>13650235813.63636</v>
       </c>
     </row>
@@ -6312,7 +8680,20 @@
       <c r="J183">
         <v>1</v>
       </c>
-      <c r="L183">
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Cholchol</t>
+        </is>
+      </c>
+      <c r="M183">
+        <v>253226.0194174757</v>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O183">
         <v>2940207311.456311</v>
       </c>
     </row>
@@ -6352,7 +8733,20 @@
       <c r="K184">
         <v>1</v>
       </c>
-      <c r="L184">
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Angol</t>
+        </is>
+      </c>
+      <c r="M184">
+        <v>268414.5785440613</v>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O184">
         <v>14296297282.41379</v>
       </c>
     </row>
@@ -6383,7 +8777,20 @@
       <c r="I185">
         <v>12</v>
       </c>
-      <c r="L185">
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>Collipulli</t>
+        </is>
+      </c>
+      <c r="M185">
+        <v>247911.8130081301</v>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O185">
         <v>6098134776.373984</v>
       </c>
     </row>
@@ -6414,7 +8821,20 @@
       <c r="I186">
         <v>5</v>
       </c>
-      <c r="L186">
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Curacautín</t>
+        </is>
+      </c>
+      <c r="M186">
+        <v>234574.3416666667</v>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O186">
         <v>4084643011.441667</v>
       </c>
     </row>
@@ -6442,7 +8862,20 @@
       <c r="I187">
         <v>2</v>
       </c>
-      <c r="L187">
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>Ercilla</t>
+        </is>
+      </c>
+      <c r="M187">
+        <v>268071.3152173913</v>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O187">
         <v>2072995480.576087</v>
       </c>
     </row>
@@ -6473,7 +8906,20 @@
       <c r="J188">
         <v>1</v>
       </c>
-      <c r="L188">
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>Lonquimay</t>
+        </is>
+      </c>
+      <c r="M188">
+        <v>250560.5432098766</v>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O188">
         <v>2568496128.444445</v>
       </c>
     </row>
@@ -6501,7 +8947,20 @@
       <c r="I189">
         <v>8</v>
       </c>
-      <c r="L189">
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>Los Sauces</t>
+        </is>
+      </c>
+      <c r="M189">
+        <v>212950.6923076923</v>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O189">
         <v>1547086779.615385</v>
       </c>
     </row>
@@ -6529,7 +8988,20 @@
       <c r="J190">
         <v>1</v>
       </c>
-      <c r="L190">
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>Lumaco</t>
+        </is>
+      </c>
+      <c r="M190">
+        <v>282522.6391752577</v>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O190">
         <v>2697526158.845361</v>
       </c>
     </row>
@@ -6560,7 +9032,20 @@
       <c r="I191">
         <v>9</v>
       </c>
-      <c r="L191">
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>Purén</t>
+        </is>
+      </c>
+      <c r="M191">
+        <v>234139.4017094017</v>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O191">
         <v>2757928012.735043</v>
       </c>
     </row>
@@ -6585,7 +9070,20 @@
       <c r="K192">
         <v>1</v>
       </c>
-      <c r="L192">
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>Renaico</t>
+        </is>
+      </c>
+      <c r="M192">
+        <v>266020.8867924528</v>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O192">
         <v>2726714089.622642</v>
       </c>
     </row>
@@ -6616,7 +9114,20 @@
       <c r="J193">
         <v>1</v>
       </c>
-      <c r="L193">
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>Traiguén</t>
+        </is>
+      </c>
+      <c r="M193">
+        <v>258102.0357142857</v>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O193">
         <v>4863416658.964286</v>
       </c>
     </row>
@@ -6647,7 +9158,20 @@
       <c r="I194">
         <v>22</v>
       </c>
-      <c r="L194">
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="M194">
+        <v>225959.8902821317</v>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O194">
         <v>7723760969.623825</v>
       </c>
     </row>
@@ -6687,7 +9211,20 @@
       <c r="K195">
         <v>1</v>
       </c>
-      <c r="L195">
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>Puerto Montt</t>
+        </is>
+      </c>
+      <c r="M195">
+        <v>304409.5849335303</v>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O195">
         <v>74854925754.32497</v>
       </c>
     </row>
@@ -6721,7 +9258,20 @@
       <c r="J196">
         <v>1</v>
       </c>
-      <c r="L196">
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>Calbuco</t>
+        </is>
+      </c>
+      <c r="M196">
+        <v>280878.2363636364</v>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O196">
         <v>9545646862.818182</v>
       </c>
     </row>
@@ -6749,7 +9299,20 @@
       <c r="I197">
         <v>3</v>
       </c>
-      <c r="L197">
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>Fresia</t>
+        </is>
+      </c>
+      <c r="M197">
+        <v>223666.25</v>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O197">
         <v>2742371891.25</v>
       </c>
     </row>
@@ -6786,7 +9349,20 @@
       <c r="K198">
         <v>1</v>
       </c>
-      <c r="L198">
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>Frutillar</t>
+        </is>
+      </c>
+      <c r="M198">
+        <v>281543.94</v>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O198">
         <v>5188291726.32</v>
       </c>
     </row>
@@ -6820,7 +9396,20 @@
       <c r="K199">
         <v>1</v>
       </c>
-      <c r="L199">
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>Los Muermos</t>
+        </is>
+      </c>
+      <c r="M199">
+        <v>233220.1037735849</v>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O199">
         <v>3980600731.207547</v>
       </c>
     </row>
@@ -6854,7 +9443,20 @@
       <c r="K200">
         <v>1</v>
       </c>
-      <c r="L200">
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>Llanquihue</t>
+        </is>
+      </c>
+      <c r="M200">
+        <v>251391.8073394495</v>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O200">
         <v>4422233282.908257</v>
       </c>
     </row>
@@ -6882,7 +9484,20 @@
       <c r="I201">
         <v>9</v>
       </c>
-      <c r="L201">
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>Maullín</t>
+        </is>
+      </c>
+      <c r="M201">
+        <v>269082.6568627451</v>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O201">
         <v>3825279049.960784</v>
       </c>
     </row>
@@ -6916,7 +9531,20 @@
       <c r="I202">
         <v>87</v>
       </c>
-      <c r="L202">
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>Puerto Varas</t>
+        </is>
+      </c>
+      <c r="M202">
+        <v>312276.5441696113</v>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O202">
         <v>13920663785.99293</v>
       </c>
     </row>
@@ -6953,7 +9581,20 @@
       <c r="K203">
         <v>1</v>
       </c>
-      <c r="L203">
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+      <c r="M203">
+        <v>349368.8021978022</v>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O203">
         <v>15304799117.87912</v>
       </c>
     </row>
@@ -6987,7 +9628,20 @@
       <c r="K204">
         <v>1</v>
       </c>
-      <c r="L204">
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Ancud</t>
+        </is>
+      </c>
+      <c r="M204">
+        <v>229798.0541666667</v>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O204">
         <v>8960055930.012501</v>
       </c>
     </row>
@@ -7018,7 +9672,20 @@
       <c r="I205">
         <v>7</v>
       </c>
-      <c r="L205">
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Chonchi</t>
+        </is>
+      </c>
+      <c r="M205">
+        <v>239577.1649484536</v>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O205">
         <v>3559637516.804123</v>
       </c>
     </row>
@@ -7046,7 +9713,20 @@
       <c r="I206">
         <v>31</v>
       </c>
-      <c r="L206">
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Dalcahue</t>
+        </is>
+      </c>
+      <c r="M206">
+        <v>325358.1545454545</v>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O206">
         <v>4477578922.854546</v>
       </c>
     </row>
@@ -7074,7 +9754,20 @@
       <c r="K207">
         <v>1</v>
       </c>
-      <c r="L207">
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Queilén</t>
+        </is>
+      </c>
+      <c r="M207">
+        <v>183406.615942029</v>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O207">
         <v>987644626.8478261</v>
       </c>
     </row>
@@ -7111,7 +9804,20 @@
       <c r="K208">
         <v>1</v>
       </c>
-      <c r="L208">
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>Quellón</t>
+        </is>
+      </c>
+      <c r="M208">
+        <v>241965.7574468085</v>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O208">
         <v>6579532876.493617</v>
       </c>
     </row>
@@ -7142,7 +9848,20 @@
       <c r="I209">
         <v>8</v>
       </c>
-      <c r="L209">
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>Quemchi</t>
+        </is>
+      </c>
+      <c r="M209">
+        <v>308051.2568807339</v>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O209">
         <v>2572844097.46789</v>
       </c>
     </row>
@@ -7170,7 +9889,20 @@
       <c r="I210">
         <v>14</v>
       </c>
-      <c r="L210">
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>Quinchao</t>
+        </is>
+      </c>
+      <c r="M210">
+        <v>370474.4186046512</v>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O210">
         <v>2996397097.674419</v>
       </c>
     </row>
@@ -7207,7 +9939,20 @@
       <c r="K211">
         <v>1</v>
       </c>
-      <c r="L211">
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>Osorno</t>
+        </is>
+      </c>
+      <c r="M211">
+        <v>271587.2815907633</v>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O211">
         <v>43850482485.64465</v>
       </c>
     </row>
@@ -7232,7 +9977,20 @@
       <c r="I212">
         <v>6</v>
       </c>
-      <c r="L212">
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Puerto Octay</t>
+        </is>
+      </c>
+      <c r="M212">
+        <v>262148.9380530973</v>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O212">
         <v>2359078293.539823</v>
       </c>
     </row>
@@ -7266,7 +10024,20 @@
       <c r="K213">
         <v>1</v>
       </c>
-      <c r="L213">
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Purranque</t>
+        </is>
+      </c>
+      <c r="M213">
+        <v>302471.5714285714</v>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O213">
         <v>6161043438.428572</v>
       </c>
     </row>
@@ -7294,7 +10065,20 @@
       <c r="I214">
         <v>9</v>
       </c>
-      <c r="L214">
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Puyehue</t>
+        </is>
+      </c>
+      <c r="M214">
+        <v>230541.2704918033</v>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O214">
         <v>2689725002.827869</v>
       </c>
     </row>
@@ -7325,7 +10109,20 @@
       <c r="I215">
         <v>5</v>
       </c>
-      <c r="L215">
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Río Negro</t>
+        </is>
+      </c>
+      <c r="M215">
+        <v>276657.0898876404</v>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O215">
         <v>3896715111.067416</v>
       </c>
     </row>
@@ -7350,7 +10147,20 @@
       <c r="I216">
         <v>1</v>
       </c>
-      <c r="L216">
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>San Juan de la Costa</t>
+        </is>
+      </c>
+      <c r="M216">
+        <v>222910.5166666667</v>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O216">
         <v>1674503801.2</v>
       </c>
     </row>
@@ -7378,7 +10188,20 @@
       <c r="I217">
         <v>3</v>
       </c>
-      <c r="L217">
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>San Pablo</t>
+        </is>
+      </c>
+      <c r="M217">
+        <v>195712.40625</v>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O217">
         <v>1962995434.6875</v>
       </c>
     </row>
@@ -7418,7 +10241,20 @@
       <c r="K218">
         <v>1</v>
       </c>
-      <c r="L218">
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Coyhaique</t>
+        </is>
+      </c>
+      <c r="M218">
+        <v>327100.2668213457</v>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O218">
         <v>18912283227.07657</v>
       </c>
     </row>
@@ -7452,7 +10288,20 @@
       <c r="J219">
         <v>1</v>
       </c>
-      <c r="L219">
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>Aysén</t>
+        </is>
+      </c>
+      <c r="M219">
+        <v>307831.3877038896</v>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O219">
         <v>7375332217.99749</v>
       </c>
     </row>
@@ -7486,7 +10335,20 @@
       <c r="J220">
         <v>1</v>
       </c>
-      <c r="L220">
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>Cisnes</t>
+        </is>
+      </c>
+      <c r="M220">
+        <v>251971.0217391304</v>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O220">
         <v>1642095148.673913</v>
       </c>
     </row>
@@ -7511,7 +10373,20 @@
       <c r="I221">
         <v>31</v>
       </c>
-      <c r="L221">
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Cochrane</t>
+        </is>
+      </c>
+      <c r="M221">
+        <v>350724.84</v>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O221">
         <v>1224029691.6</v>
       </c>
     </row>
@@ -7539,7 +10414,20 @@
       <c r="I222">
         <v>26</v>
       </c>
-      <c r="L222">
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Chile Chico</t>
+        </is>
+      </c>
+      <c r="M222">
+        <v>333445.3146067416</v>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O222">
         <v>1622211455.561798</v>
       </c>
     </row>
@@ -7579,7 +10467,20 @@
       <c r="K223">
         <v>1</v>
       </c>
-      <c r="L223">
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="M223">
+        <v>391758.3661804108</v>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O223">
         <v>51552266922.41262</v>
       </c>
     </row>
@@ -7613,7 +10514,20 @@
       <c r="J224">
         <v>1</v>
       </c>
-      <c r="L224">
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>Porvenir</t>
+        </is>
+      </c>
+      <c r="M224">
+        <v>446255.2098765432</v>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O224">
         <v>3034981682.37037</v>
       </c>
     </row>
@@ -7647,7 +10561,20 @@
       <c r="K225">
         <v>1</v>
       </c>
-      <c r="L225">
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>Natales</t>
+        </is>
+      </c>
+      <c r="M225">
+        <v>336808.5689223058</v>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O225">
         <v>7233637634.744361</v>
       </c>
     </row>
@@ -7687,7 +10614,20 @@
       <c r="K226">
         <v>1</v>
       </c>
-      <c r="L226">
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="M226">
+        <v>450851.6698795181</v>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O226">
         <v>182367246207.9157</v>
       </c>
     </row>
@@ -7724,7 +10664,20 @@
       <c r="K227">
         <v>1</v>
       </c>
-      <c r="L227">
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>Cerrillos</t>
+        </is>
+      </c>
+      <c r="M227">
+        <v>276766.4606299212</v>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O227">
         <v>22371586545.63779</v>
       </c>
     </row>
@@ -7761,7 +10714,20 @@
       <c r="K228">
         <v>1</v>
       </c>
-      <c r="L228">
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>Cerro Navia</t>
+        </is>
+      </c>
+      <c r="M228">
+        <v>270634.0663900415</v>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O228">
         <v>35892031152.78008</v>
       </c>
     </row>
@@ -7798,7 +10764,20 @@
       <c r="K229">
         <v>1</v>
       </c>
-      <c r="L229">
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>Conchalí</t>
+        </is>
+      </c>
+      <c r="M229">
+        <v>310325.3389121339</v>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O229">
         <v>39397353401.58996</v>
       </c>
     </row>
@@ -7835,7 +10814,20 @@
       <c r="K230">
         <v>1</v>
       </c>
-      <c r="L230">
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>El Bosque</t>
+        </is>
+      </c>
+      <c r="M230">
+        <v>281653.9207920792</v>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O230">
         <v>45770170398.31683</v>
       </c>
     </row>
@@ -7875,7 +10867,20 @@
       <c r="K231">
         <v>1</v>
       </c>
-      <c r="L231">
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>Estación Central</t>
+        </is>
+      </c>
+      <c r="M231">
+        <v>340680.1666666667</v>
+      </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O231">
         <v>50093952386.83334</v>
       </c>
     </row>
@@ -7912,7 +10917,20 @@
       <c r="K232">
         <v>1</v>
       </c>
-      <c r="L232">
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>Huechuraba</t>
+        </is>
+      </c>
+      <c r="M232">
+        <v>315250.0613718412</v>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O232">
         <v>31106038805.62094</v>
       </c>
     </row>
@@ -7949,7 +10967,20 @@
       <c r="K233">
         <v>1</v>
       </c>
-      <c r="L233">
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>Independencia</t>
+        </is>
+      </c>
+      <c r="M233">
+        <v>376152.5745341615</v>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O233">
         <v>37720956326.86025</v>
       </c>
     </row>
@@ -7983,7 +11014,20 @@
       <c r="I234">
         <v>59</v>
       </c>
-      <c r="L234">
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>La Cisterna</t>
+        </is>
+      </c>
+      <c r="M234">
+        <v>367262.434375</v>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O234">
         <v>33097323323.44062</v>
       </c>
     </row>
@@ -8020,7 +11064,20 @@
       <c r="K235">
         <v>1</v>
       </c>
-      <c r="L235">
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>La Florida</t>
+        </is>
+      </c>
+      <c r="M235">
+        <v>349483.4555854643</v>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O235">
         <v>128231071589.5962</v>
       </c>
     </row>
@@ -8057,7 +11114,20 @@
       <c r="K236">
         <v>1</v>
       </c>
-      <c r="L236">
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>La Granja</t>
+        </is>
+      </c>
+      <c r="M236">
+        <v>306768.2928709056</v>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O236">
         <v>35760286668.25433</v>
       </c>
     </row>
@@ -8094,7 +11164,20 @@
       <c r="K237">
         <v>1</v>
       </c>
-      <c r="L237">
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>La Pintana</t>
+        </is>
+      </c>
+      <c r="M237">
+        <v>232646.9507042253</v>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O237">
         <v>41256447003.1338</v>
       </c>
     </row>
@@ -8128,7 +11211,20 @@
       <c r="K238">
         <v>1</v>
       </c>
-      <c r="L238">
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>La Reina</t>
+        </is>
+      </c>
+      <c r="M238">
+        <v>434408.4823943662</v>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O238">
         <v>40307459855.92606</v>
       </c>
     </row>
@@ -8165,7 +11261,20 @@
       <c r="K239">
         <v>1</v>
       </c>
-      <c r="L239">
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Las Condes</t>
+        </is>
+      </c>
+      <c r="M239">
+        <v>456515.6784363178</v>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O239">
         <v>134598169598.8071</v>
       </c>
     </row>
@@ -8196,7 +11305,20 @@
       <c r="I240">
         <v>20</v>
       </c>
-      <c r="L240">
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Lo Barnechea</t>
+        </is>
+      </c>
+      <c r="M240">
+        <v>349308.6761904762</v>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O240">
         <v>36968385127.26666</v>
       </c>
     </row>
@@ -8233,7 +11355,20 @@
       <c r="K241">
         <v>1</v>
       </c>
-      <c r="L241">
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>Lo Espejo</t>
+        </is>
+      </c>
+      <c r="M241">
+        <v>264154.0781990521</v>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O241">
         <v>26099479542.37915</v>
       </c>
     </row>
@@ -8270,7 +11405,20 @@
       <c r="K242">
         <v>1</v>
       </c>
-      <c r="L242">
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>Lo Prado</t>
+        </is>
+      </c>
+      <c r="M242">
+        <v>305431.1726804124</v>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O242">
         <v>29397444939.31701</v>
       </c>
     </row>
@@ -8304,7 +11452,20 @@
       <c r="I243">
         <v>36</v>
       </c>
-      <c r="L243">
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>Macul</t>
+        </is>
+      </c>
+      <c r="M243">
+        <v>345701.4292682927</v>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O243">
         <v>40285970358.35122</v>
       </c>
     </row>
@@ -8341,7 +11502,20 @@
       <c r="K244">
         <v>1</v>
       </c>
-      <c r="L244">
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>Maipú</t>
+        </is>
+      </c>
+      <c r="M244">
+        <v>358559.2145171744</v>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O244">
         <v>187034167390.9501</v>
       </c>
     </row>
@@ -8381,7 +11555,20 @@
       <c r="K245">
         <v>1</v>
       </c>
-      <c r="L245">
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>Ñuñoa</t>
+        </is>
+      </c>
+      <c r="M245">
+        <v>426460.0762388819</v>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O245">
         <v>88804766895.75604</v>
       </c>
     </row>
@@ -8418,7 +11605,20 @@
       <c r="K246">
         <v>1</v>
       </c>
-      <c r="L246">
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>Pedro Aguirre Cerda</t>
+        </is>
+      </c>
+      <c r="M246">
+        <v>316863.2429378531</v>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O246">
         <v>32058321740.99435</v>
       </c>
     </row>
@@ -8455,7 +11655,20 @@
       <c r="K247">
         <v>1</v>
       </c>
-      <c r="L247">
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>Peñalolén</t>
+        </is>
+      </c>
+      <c r="M247">
+        <v>321570.5863636364</v>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O247">
         <v>77691132094.86818</v>
       </c>
     </row>
@@ -8492,7 +11705,20 @@
       <c r="K248">
         <v>1</v>
       </c>
-      <c r="L248">
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>Providencia</t>
+        </is>
+      </c>
+      <c r="M248">
+        <v>516122.328990228</v>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O248">
         <v>73330144380.6026</v>
       </c>
     </row>
@@ -8532,7 +11758,20 @@
       <c r="K249">
         <v>1</v>
       </c>
-      <c r="L249">
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>Pudahuel</t>
+        </is>
+      </c>
+      <c r="M249">
+        <v>320572.6940789474</v>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O249">
         <v>73825647437.52303</v>
       </c>
     </row>
@@ -8569,7 +11808,20 @@
       <c r="K250">
         <v>1</v>
       </c>
-      <c r="L250">
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>Quilicura</t>
+        </is>
+      </c>
+      <c r="M250">
+        <v>383485.7742616034</v>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O250">
         <v>80689241762.38396</v>
       </c>
     </row>
@@ -8603,7 +11855,20 @@
       <c r="K251">
         <v>1</v>
       </c>
-      <c r="L251">
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>Quinta Normal</t>
+        </is>
+      </c>
+      <c r="M251">
+        <v>311731.1462140992</v>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O251">
         <v>34298531093.35248</v>
       </c>
     </row>
@@ -8640,7 +11905,20 @@
       <c r="K252">
         <v>1</v>
       </c>
-      <c r="L252">
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="M252">
+        <v>344997.0121739131</v>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O252">
         <v>54458123368.66435</v>
       </c>
     </row>
@@ -8677,7 +11955,20 @@
       <c r="K253">
         <v>1</v>
       </c>
-      <c r="L253">
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>Renca</t>
+        </is>
+      </c>
+      <c r="M253">
+        <v>294000.48</v>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O253">
         <v>43262464632.48</v>
       </c>
     </row>
@@ -8714,7 +12005,20 @@
       <c r="K254">
         <v>1</v>
       </c>
-      <c r="L254">
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>San Joaquín</t>
+        </is>
+      </c>
+      <c r="M254">
+        <v>336046.7810945273</v>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O254">
         <v>31753732439.18408</v>
       </c>
     </row>
@@ -8751,7 +12055,20 @@
       <c r="K255">
         <v>1</v>
       </c>
-      <c r="L255">
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="M255">
+        <v>351632.0965732088</v>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O255">
         <v>37960091353.46418</v>
       </c>
     </row>
@@ -8788,7 +12105,20 @@
       <c r="K256">
         <v>1</v>
       </c>
-      <c r="L256">
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>San Ramón</t>
+        </is>
+      </c>
+      <c r="M256">
+        <v>281439.6071428572</v>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O256">
         <v>23331343432.14286</v>
       </c>
     </row>
@@ -8825,7 +12155,20 @@
       <c r="K257">
         <v>1</v>
       </c>
-      <c r="L257">
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>Vitacura</t>
+        </is>
+      </c>
+      <c r="M257">
+        <v>496933.1476510067</v>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O257">
         <v>42430139879.03355</v>
       </c>
     </row>
@@ -8862,7 +12205,20 @@
       <c r="K258">
         <v>1</v>
       </c>
-      <c r="L258">
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>Puente Alto</t>
+        </is>
+      </c>
+      <c r="M258">
+        <v>328342.7115251898</v>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O258">
         <v>186533464473.7295</v>
       </c>
     </row>
@@ -8890,7 +12246,20 @@
       <c r="I259">
         <v>5</v>
       </c>
-      <c r="L259">
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>Pirque</t>
+        </is>
+      </c>
+      <c r="M259">
+        <v>332454.4615384616</v>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O259">
         <v>8817024774.461538</v>
       </c>
     </row>
@@ -8924,7 +12293,20 @@
       <c r="I260">
         <v>38</v>
       </c>
-      <c r="L260">
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>San José de Maipo</t>
+        </is>
+      </c>
+      <c r="M260">
+        <v>381218.3888888889</v>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O260">
         <v>6933981275.5</v>
       </c>
     </row>
@@ -8964,7 +12346,20 @@
       <c r="K261">
         <v>1</v>
       </c>
-      <c r="L261">
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>Colina</t>
+        </is>
+      </c>
+      <c r="M261">
+        <v>300608.9757869249</v>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O261">
         <v>43951136522.87894</v>
       </c>
     </row>
@@ -9001,7 +12396,20 @@
       <c r="K262">
         <v>1</v>
       </c>
-      <c r="L262">
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>Lampa</t>
+        </is>
+      </c>
+      <c r="M262">
+        <v>372623.9911894273</v>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O262">
         <v>38020316317.02203</v>
       </c>
     </row>
@@ -9026,7 +12434,20 @@
       <c r="I263">
         <v>21</v>
       </c>
-      <c r="L263">
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>Tiltil</t>
+        </is>
+      </c>
+      <c r="M263">
+        <v>327523.1111111111</v>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O263">
         <v>6325126321.777778</v>
       </c>
     </row>
@@ -9063,7 +12484,20 @@
       <c r="K264">
         <v>1</v>
       </c>
-      <c r="L264">
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>San Bernardo</t>
+        </is>
+      </c>
+      <c r="M264">
+        <v>286991.8495297806</v>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O264">
         <v>86474375157.36678</v>
       </c>
     </row>
@@ -9097,7 +12531,20 @@
       <c r="K265">
         <v>1</v>
       </c>
-      <c r="L265">
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>Buin</t>
+        </is>
+      </c>
+      <c r="M265">
+        <v>314979.3201970444</v>
+      </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O265">
         <v>30431412041.51724</v>
       </c>
     </row>
@@ -9128,7 +12575,20 @@
       <c r="I266">
         <v>6</v>
       </c>
-      <c r="L266">
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>Calera de Tango</t>
+        </is>
+      </c>
+      <c r="M266">
+        <v>307306.4539007092</v>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O266">
         <v>7803125477.446809</v>
       </c>
     </row>
@@ -9165,7 +12625,20 @@
       <c r="K267">
         <v>1</v>
       </c>
-      <c r="L267">
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="M267">
+        <v>330137.7009345794</v>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O267">
         <v>24020488982.29907</v>
       </c>
     </row>
@@ -9202,7 +12675,20 @@
       <c r="K268">
         <v>1</v>
       </c>
-      <c r="L268">
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>Melipilla</t>
+        </is>
+      </c>
+      <c r="M268">
+        <v>291641.935483871</v>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O268">
         <v>36054817558.06451</v>
       </c>
     </row>
@@ -9230,7 +12716,20 @@
       <c r="I269">
         <v>20</v>
       </c>
-      <c r="L269">
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>Alhué</t>
+        </is>
+      </c>
+      <c r="M269">
+        <v>349434.5327102804</v>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O269">
         <v>2251756128.785047</v>
       </c>
     </row>
@@ -9261,7 +12760,20 @@
       <c r="I270">
         <v>13</v>
       </c>
-      <c r="L270">
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>Curacaví</t>
+        </is>
+      </c>
+      <c r="M270">
+        <v>269095.0614035088</v>
+      </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O270">
         <v>8766848005.464912</v>
       </c>
     </row>
@@ -9286,7 +12798,20 @@
       <c r="I271">
         <v>1</v>
       </c>
-      <c r="L271">
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>María Pinto</t>
+        </is>
+      </c>
+      <c r="M271">
+        <v>253962.5384615385</v>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O271">
         <v>3451350897.692308</v>
       </c>
     </row>
@@ -9320,7 +12845,20 @@
       <c r="K272">
         <v>1</v>
       </c>
-      <c r="L272">
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>Talagante</t>
+        </is>
+      </c>
+      <c r="M272">
+        <v>394670.6190476191</v>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O272">
         <v>29299162746.23809</v>
       </c>
     </row>
@@ -9348,7 +12886,20 @@
       <c r="I273">
         <v>7</v>
       </c>
-      <c r="L273">
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>El Monte</t>
+        </is>
+      </c>
+      <c r="M273">
+        <v>297691.7130434783</v>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O273">
         <v>10693979407.66087</v>
       </c>
     </row>
@@ -9385,7 +12936,20 @@
       <c r="K274">
         <v>1</v>
       </c>
-      <c r="L274">
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>Isla de Maipo</t>
+        </is>
+      </c>
+      <c r="M274">
+        <v>229284.1162790698</v>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O274">
         <v>8304441407.511628</v>
       </c>
     </row>
@@ -9422,7 +12986,20 @@
       <c r="K275">
         <v>1</v>
       </c>
-      <c r="L275">
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>Padre Hurtado</t>
+        </is>
+      </c>
+      <c r="M275">
+        <v>277563.2131147541</v>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O275">
         <v>17555873229.5082</v>
       </c>
     </row>
@@ -9453,7 +13030,20 @@
       <c r="I276">
         <v>22</v>
       </c>
-      <c r="L276">
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>Peñaflor</t>
+        </is>
+      </c>
+      <c r="M276">
+        <v>351564.7330316742</v>
+      </c>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O276">
         <v>31711490484.19005</v>
       </c>
     </row>
@@ -9493,7 +13083,20 @@
       <c r="K277">
         <v>1</v>
       </c>
-      <c r="L277">
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>Valdivia</t>
+        </is>
+      </c>
+      <c r="M277">
+        <v>308754.4806051203</v>
+      </c>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O277">
         <v>51277944138.89837</v>
       </c>
     </row>
@@ -9521,7 +13124,20 @@
       <c r="I278">
         <v>10</v>
       </c>
-      <c r="L278">
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>Corral</t>
+        </is>
+      </c>
+      <c r="M278">
+        <v>222523.880952381</v>
+      </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O278">
         <v>1179821616.809524</v>
       </c>
     </row>
@@ -9555,7 +13171,20 @@
       <c r="K279">
         <v>1</v>
       </c>
-      <c r="L279">
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>Lanco</t>
+        </is>
+      </c>
+      <c r="M279">
+        <v>267285.9915966386</v>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O279">
         <v>4477574931.226891</v>
       </c>
     </row>
@@ -9589,7 +13218,20 @@
       <c r="K280">
         <v>1</v>
       </c>
-      <c r="L280">
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="M280">
+        <v>211843.1384615385</v>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O280">
         <v>4159328180.553846</v>
       </c>
     </row>
@@ -9617,7 +13259,20 @@
       <c r="I281">
         <v>2</v>
       </c>
-      <c r="L281">
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>Máfil</t>
+        </is>
+      </c>
+      <c r="M281">
+        <v>315022.0625</v>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O281">
         <v>2235081533.4375</v>
       </c>
     </row>
@@ -9648,7 +13303,20 @@
       <c r="K282">
         <v>1</v>
       </c>
-      <c r="L282">
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>Mariquina</t>
+        </is>
+      </c>
+      <c r="M282">
+        <v>251064.3424657534</v>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O282">
         <v>5342147078.986301</v>
       </c>
     </row>
@@ -9682,7 +13350,20 @@
       <c r="K283">
         <v>1</v>
       </c>
-      <c r="L283">
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>Paillaco</t>
+        </is>
+      </c>
+      <c r="M283">
+        <v>223306.5</v>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O283">
         <v>4508111622</v>
       </c>
     </row>
@@ -9719,7 +13400,20 @@
       <c r="K284">
         <v>1</v>
       </c>
-      <c r="L284">
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>Panguipulli</t>
+        </is>
+      </c>
+      <c r="M284">
+        <v>287752.4545454545</v>
+      </c>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O284">
         <v>9938682027.545454</v>
       </c>
     </row>
@@ -9753,7 +13447,20 @@
       <c r="K285">
         <v>1</v>
       </c>
-      <c r="L285">
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>La Unión</t>
+        </is>
+      </c>
+      <c r="M285">
+        <v>247291.7196765499</v>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O285">
         <v>9405987849.61725</v>
       </c>
     </row>
@@ -9787,7 +13494,20 @@
       <c r="K286">
         <v>1</v>
       </c>
-      <c r="L286">
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>Futrono</t>
+        </is>
+      </c>
+      <c r="M286">
+        <v>247331.6885245902</v>
+      </c>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O286">
         <v>3627119212.213115</v>
       </c>
     </row>
@@ -9818,7 +13538,20 @@
       <c r="J287">
         <v>1</v>
       </c>
-      <c r="L287">
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>Lago Ranco</t>
+        </is>
+      </c>
+      <c r="M287">
+        <v>247154.2298850575</v>
+      </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O287">
         <v>2445838258.942529</v>
       </c>
     </row>
@@ -9852,7 +13585,20 @@
       <c r="J288">
         <v>1</v>
       </c>
-      <c r="L288">
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>Río Bueno</t>
+        </is>
+      </c>
+      <c r="M288">
+        <v>267934.3768656717</v>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O288">
         <v>8405637271.029851</v>
       </c>
     </row>
@@ -9892,7 +13638,20 @@
       <c r="K289">
         <v>1</v>
       </c>
-      <c r="L289">
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>Arica</t>
+        </is>
+      </c>
+      <c r="M289">
+        <v>310013.3198950382</v>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O289">
         <v>68625788545.24522</v>
       </c>
     </row>
@@ -9926,7 +13685,20 @@
       <c r="J290">
         <v>1</v>
       </c>
-      <c r="L290">
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>Putre</t>
+        </is>
+      </c>
+      <c r="M290">
+        <v>283661.4935064935</v>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O290">
         <v>784324029.5454546</v>
       </c>
     </row>
@@ -9966,7 +13738,20 @@
       <c r="K291">
         <v>1</v>
       </c>
-      <c r="L291">
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="M291">
+        <v>275879.1803892216</v>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O291">
         <v>50965643905.92441</v>
       </c>
     </row>
@@ -10003,7 +13788,20 @@
       <c r="K292">
         <v>1</v>
       </c>
-      <c r="L292">
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>Bulnes</t>
+        </is>
+      </c>
+      <c r="M292">
+        <v>224694.8903225806</v>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O292">
         <v>4829367277.703226</v>
       </c>
     </row>
@@ -10031,7 +13829,20 @@
       <c r="I293">
         <v>8</v>
       </c>
-      <c r="L293">
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>Chillán Viejo</t>
+        </is>
+      </c>
+      <c r="M293">
+        <v>259577.524822695</v>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O293">
         <v>8022762559.695035</v>
       </c>
     </row>
@@ -10059,7 +13870,20 @@
       <c r="K294">
         <v>1</v>
       </c>
-      <c r="L294">
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>El Carmen</t>
+        </is>
+      </c>
+      <c r="M294">
+        <v>215566.4698795181</v>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O294">
         <v>2596282563.228916</v>
       </c>
     </row>
@@ -10084,7 +13908,20 @@
       <c r="I295">
         <v>3</v>
       </c>
-      <c r="L295">
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>Pemuco</t>
+        </is>
+      </c>
+      <c r="M295">
+        <v>262037.3770491803</v>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O295">
         <v>2213691761.311475</v>
       </c>
     </row>
@@ -10109,7 +13946,20 @@
       <c r="I296">
         <v>4</v>
       </c>
-      <c r="L296">
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>Pinto</t>
+        </is>
+      </c>
+      <c r="M296">
+        <v>175602.5495495496</v>
+      </c>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O296">
         <v>1901248803.972973</v>
       </c>
     </row>
@@ -10137,7 +13987,20 @@
       <c r="I297">
         <v>4</v>
       </c>
-      <c r="L297">
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>Quillón</t>
+        </is>
+      </c>
+      <c r="M297">
+        <v>256072.3983739837</v>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O297">
         <v>4477425885.569106</v>
       </c>
     </row>
@@ -10168,7 +14031,20 @@
       <c r="I298">
         <v>2</v>
       </c>
-      <c r="L298">
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>San Ignacio</t>
+        </is>
+      </c>
+      <c r="M298">
+        <v>203331.5039370079</v>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O298">
         <v>3269367251.80315</v>
       </c>
     </row>
@@ -10202,7 +14078,20 @@
       <c r="I299">
         <v>13</v>
       </c>
-      <c r="L299">
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>Yungay</t>
+        </is>
+      </c>
+      <c r="M299">
+        <v>258601.1182795699</v>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O299">
         <v>4599738090.83871</v>
       </c>
     </row>
@@ -10239,7 +14128,20 @@
       <c r="K300">
         <v>1</v>
       </c>
-      <c r="L300">
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>Quirihue</t>
+        </is>
+      </c>
+      <c r="M300">
+        <v>252923.7373737374</v>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O300">
         <v>2932397811.111111</v>
       </c>
     </row>
@@ -10264,7 +14166,20 @@
       <c r="I301">
         <v>9</v>
       </c>
-      <c r="L301">
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>Cobquecura</t>
+        </is>
+      </c>
+      <c r="M301">
+        <v>259487.1568627451</v>
+      </c>
+      <c r="N301" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O301">
         <v>1300549630.196078</v>
       </c>
     </row>
@@ -10295,7 +14210,20 @@
       <c r="J302">
         <v>1</v>
       </c>
-      <c r="L302">
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>Coelemu</t>
+        </is>
+      </c>
+      <c r="M302">
+        <v>296882.1333333334</v>
+      </c>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O302">
         <v>4748629722.666667</v>
       </c>
     </row>
@@ -10320,7 +14248,20 @@
       <c r="I303">
         <v>2</v>
       </c>
-      <c r="L303">
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>Ninhue</t>
+        </is>
+      </c>
+      <c r="M303">
+        <v>301493.7755102041</v>
+      </c>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O303">
         <v>1571687051.734694</v>
       </c>
     </row>
@@ -10342,7 +14283,20 @@
       <c r="I304">
         <v>3</v>
       </c>
-      <c r="L304">
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>Portezuelo</t>
+        </is>
+      </c>
+      <c r="M304">
+        <v>196869.8769230769</v>
+      </c>
+      <c r="N304" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O304">
         <v>957181341.6</v>
       </c>
     </row>
@@ -10364,7 +14318,20 @@
       <c r="I305">
         <v>4</v>
       </c>
-      <c r="L305">
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>Ránquil</t>
+        </is>
+      </c>
+      <c r="M305">
+        <v>286762.89</v>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O305">
         <v>1650320431.95</v>
       </c>
     </row>
@@ -10386,7 +14353,20 @@
       <c r="I306">
         <v>2</v>
       </c>
-      <c r="L306">
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>Treguaco</t>
+        </is>
+      </c>
+      <c r="M306">
+        <v>218702.3628318584</v>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O306">
         <v>1181211461.654867</v>
       </c>
     </row>
@@ -10420,7 +14400,20 @@
       <c r="K307">
         <v>1</v>
       </c>
-      <c r="L307">
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>San Carlos</t>
+        </is>
+      </c>
+      <c r="M307">
+        <v>252551.6144278607</v>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O307">
         <v>13391296803.42289</v>
       </c>
     </row>
@@ -10448,7 +14441,20 @@
       <c r="I308">
         <v>4</v>
       </c>
-      <c r="L308">
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>Coihueco</t>
+        </is>
+      </c>
+      <c r="M308">
+        <v>213580.376344086</v>
+      </c>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O308">
         <v>5741254096.505376</v>
       </c>
     </row>
@@ -10476,7 +14482,20 @@
       <c r="K309">
         <v>1</v>
       </c>
-      <c r="L309">
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>Ñiquén</t>
+        </is>
+      </c>
+      <c r="M309">
+        <v>236681.49</v>
+      </c>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O309">
         <v>2639471976.48</v>
       </c>
     </row>
@@ -10504,7 +14523,20 @@
       <c r="I310">
         <v>4</v>
       </c>
-      <c r="L310">
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>San Fabián</t>
+        </is>
+      </c>
+      <c r="M310">
+        <v>259592.5275590551</v>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O310">
         <v>1118324608.72441</v>
       </c>
     </row>
@@ -10529,7 +14561,20 @@
       <c r="I311">
         <v>2</v>
       </c>
-      <c r="L311">
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>San Nicolás</t>
+        </is>
+      </c>
+      <c r="M311">
+        <v>266207.0743243243</v>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O311">
         <v>3088800683.385135</v>
       </c>
     </row>
